--- a/public/tes_import_donasi.xlsx
+++ b/public/tes_import_donasi.xlsx
@@ -33,9 +33,6 @@
     <t>sistem donasi</t>
   </si>
   <si>
-    <t>jenis</t>
-  </si>
-  <si>
     <t>syarat</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Non-cash</t>
+  </si>
+  <si>
+    <t>jenis donasi</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -505,10 +507,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -520,99 +522,99 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
         <v>5000000</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
         <v>5000000</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="5">
         <v>100000000</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
